--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:00:19+00:00</t>
+    <t>2022-10-21T23:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:01:56+00:00</t>
+    <t>2022-10-21T23:10:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:10:36+00:00</t>
+    <t>2022-10-21T23:24:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:24:13+00:00</t>
+    <t>2022-10-23T08:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T08:50:48+00:00</t>
+    <t>2022-10-23T08:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>MPD Bundle</t>
+    <t>PPL Medicinal Product Bundle profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T08:58:51+00:00</t>
+    <t>2022-10-23T18:15:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>...</t>
+    <t>Medicinal product with all its relevant data as one bundle, including packages, MA and pharmaceutical product</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T18:15:07+00:00</t>
+    <t>2022-10-23T19:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:27:30+00:00</t>
+    <t>2022-10-23T19:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:35:12+00:00</t>
+    <t>2022-10-23T20:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T20:13:34+00:00</t>
+    <t>2022-10-25T12:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:14:01+00:00</t>
+    <t>2022-10-25T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:47:24+00:00</t>
+    <t>2022-10-30T17:01:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T17:01:43+00:00</t>
+    <t>2022-10-30T18:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>76</v>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>83</v>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>83</v>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T18:15:34+00:00</t>
+    <t>2022-10-30T20:04:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T20:04:00+00:00</t>
+    <t>2022-10-30T21:50:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T21:50:47+00:00</t>
+    <t>2022-10-30T22:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:04:36+00:00</t>
+    <t>2022-10-30T22:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:13:17+00:00</t>
+    <t>2022-11-02T06:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T06:16:24+00:00</t>
+    <t>2022-11-02T20:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T20:48:31+00:00</t>
+    <t>2022-11-03T14:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T14:07:58+00:00</t>
+    <t>2022-11-05T15:30:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:30:00+00:00</t>
+    <t>2022-11-05T15:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:35:25+00:00</t>
+    <t>2022-11-06T17:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T17:03:22+00:00</t>
+    <t>2022-11-06T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T21:19:48+00:00</t>
+    <t>2022-11-06T22:26:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T22:26:11+00:00</t>
+    <t>2022-11-07T21:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:05:10+00:00</t>
+    <t>2022-11-07T21:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
+++ b/branches/mpd-r5/StructureDefinition-MPDBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:23:46+00:00</t>
+    <t>2022-11-07T21:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
